--- a/Mifos Automation Excels/Loan Product/2413-MS-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-BLR-OnTime-CASH-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/2413-MS-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-BLR-OnTime-CASH-Loanproduct.xlsx
@@ -198,9 +198,6 @@
     <t>US Dollar</t>
   </si>
   <si>
-    <t>Overdue/Due Fee/Int,Principal</t>
-  </si>
-  <si>
     <t>islinkedtofloatinginterestrates</t>
   </si>
   <si>
@@ -279,7 +276,10 @@
     <t>frequencydateforrecalculation</t>
   </si>
   <si>
-    <t>2413-MS-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-BLR-OnTime-CASH</t>
+    <t>Penalties, Fees, Interest, Principal order</t>
+  </si>
+  <si>
+    <t>2413-MS-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-BLR-ONTIME-CASH</t>
   </si>
 </sst>
 </file>
@@ -303,6 +303,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -319,6 +320,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -382,7 +384,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -394,6 +395,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -700,7 +704,7 @@
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -790,66 +794,66 @@
       </c>
     </row>
     <row r="11" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B12" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="14">
+    <row r="15" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B16" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="14">
+      <c r="B17" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="9">
         <v>1</v>
       </c>
     </row>
@@ -865,8 +869,8 @@
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>82</v>
+      <c r="B20" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -881,8 +885,8 @@
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>60</v>
+      <c r="B22" s="19" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -890,7 +894,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -946,22 +950,22 @@
         <v>34</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="19">
+      <c r="B32" s="18">
         <v>42005</v>
       </c>
     </row>
@@ -1141,177 +1145,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>84</v>
+      <c r="B3" s="13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>74</v>
+      <c r="A4" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>73</v>
+      <c r="A5" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="B7" s="15">
+        <v>42096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="16">
-        <v>42096</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>78</v>
-      </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="B11" s="15">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="16">
-        <v>42125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="B12" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="B12" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="B15" s="15">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="16">
-        <v>42156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="B16" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="B16" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="B19" s="15">
+        <v>42186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="16">
-        <v>42186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="B20" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="B20" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>79</v>
+      <c r="A22" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
